--- a/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>동원샘물</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경기도 연천군 청산면 대전리 산167-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -214,6 +210,18 @@
   </si>
   <si>
     <t>산베네딕토</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동원샘물(포천)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동원샘물(연천)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 포천시</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -600,10 +608,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H45"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1007,7 +1018,7 @@
     </row>
     <row r="16" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>8</v>
@@ -1028,12 +1039,12 @@
         <v>0.2</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
         <v>9</v>
@@ -1054,12 +1065,12 @@
         <v>0.5</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>8</v>
@@ -1080,12 +1091,12 @@
         <v>0</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>9</v>
@@ -1106,12 +1117,12 @@
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>8</v>
@@ -1132,12 +1143,12 @@
         <v>0</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" s="5" t="s">
         <v>9</v>
@@ -1158,12 +1169,12 @@
         <v>0.1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>8</v>
@@ -1184,12 +1195,12 @@
         <v>0</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>9</v>
@@ -1210,12 +1221,12 @@
         <v>0.1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
@@ -1236,12 +1247,12 @@
         <v>0.5</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="5" t="s">
         <v>9</v>
@@ -1262,15 +1273,15 @@
         <v>0.7</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>33</v>
       </c>
       <c r="C26" s="3">
         <v>13.94</v>
@@ -1288,15 +1299,15 @@
         <v>0</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C27" s="3">
         <v>19.989999999999998</v>
@@ -1314,15 +1325,15 @@
         <v>0.18</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="3">
         <v>8.1</v>
@@ -1340,15 +1351,15 @@
         <v>0.5</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C29" s="3">
         <v>13.5</v>
@@ -1366,15 +1377,15 @@
         <v>0.7</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C30" s="3">
         <v>17.8</v>
@@ -1392,15 +1403,15 @@
         <v>0.2</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="3">
         <v>28.3</v>
@@ -1418,15 +1429,15 @@
         <v>0.5</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="3">
         <v>9.6999999999999993</v>
@@ -1444,15 +1455,15 @@
         <v>0</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C33" s="3">
         <v>14.7</v>
@@ -1470,15 +1481,15 @@
         <v>0.2</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C34" s="3">
         <v>5.7</v>
@@ -1496,15 +1507,15 @@
         <v>0</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C35" s="3">
         <v>5.7</v>
@@ -1522,15 +1533,15 @@
         <v>0</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C36" s="3">
         <v>6.8</v>
@@ -1548,15 +1559,15 @@
         <v>0.1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C37" s="3">
         <v>6.8</v>
@@ -1574,15 +1585,15 @@
         <v>0.1</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C38" s="3">
         <v>20</v>
@@ -1600,15 +1611,15 @@
         <v>0</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C39" s="3">
         <v>40</v>
@@ -1626,15 +1637,15 @@
         <v>0.01</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C40" s="3">
         <v>5.6</v>
@@ -1652,15 +1663,15 @@
         <v>0.19</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C41" s="3">
         <v>5.6</v>
@@ -1678,15 +1689,15 @@
         <v>0.19</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C42" s="3">
         <v>45</v>
@@ -1704,15 +1715,15 @@
         <v>0</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C43" s="3">
         <v>45</v>
@@ -1730,15 +1741,15 @@
         <v>0</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" s="3">
         <v>47.1</v>
@@ -1756,15 +1767,15 @@
         <v>0.1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C45" s="3">
         <v>47.1</v>
@@ -1782,7 +1793,59 @@
         <v>0.1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="D46" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="E46" s="2">
+        <v>8.4</v>
+      </c>
+      <c r="F46" s="2">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="G46" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" s="2">
+        <v>37.9</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="G47" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,6 +222,34 @@
   </si>
   <si>
     <t>경기도 포천시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이시스에코</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탐사수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루이리터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>얼쑤얼수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남 산청시 천면 남명로 59-102</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -608,13 +636,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L35" sqref="L35"/>
+      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1848,6 +1876,206 @@
         <v>50</v>
       </c>
     </row>
+    <row r="48" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E48" s="2">
+        <v>3.9</v>
+      </c>
+      <c r="F48" s="2">
+        <v>5</v>
+      </c>
+      <c r="G48" s="2">
+        <v>0</v>
+      </c>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" s="2">
+        <v>28.1</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="E49" s="2">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F49" s="2">
+        <v>6.8</v>
+      </c>
+      <c r="G49" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C50" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D50" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>9</v>
+      </c>
+      <c r="F50" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="G50" s="2">
+        <v>0</v>
+      </c>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C51" s="2">
+        <v>17</v>
+      </c>
+      <c r="D51" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="E51" s="2">
+        <v>12</v>
+      </c>
+      <c r="F51" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G51" s="2">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" s="2">
+        <v>8.1</v>
+      </c>
+      <c r="D52" s="2">
+        <v>0.4</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4.7</v>
+      </c>
+      <c r="F52" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G52" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" s="2">
+        <v>13.5</v>
+      </c>
+      <c r="D53" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="E53" s="2">
+        <v>6.7</v>
+      </c>
+      <c r="F53" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="G53" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C54" s="2">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="D54" s="2">
+        <v>4.3</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="F54" s="2">
+        <v>1.2</v>
+      </c>
+      <c r="G54" s="2">
+        <v>0</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C55" s="2">
+        <v>9.9</v>
+      </c>
+      <c r="D55" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="E55" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F55" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="G55" s="2">
+        <v>0</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="60">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -250,6 +250,14 @@
   </si>
   <si>
     <t>경남 산청시 천면 남명로 59-102</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남 산청 시천면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 포천시 일동면</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +647,10 @@
   <dimension ref="A1:H55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B35" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="N45" sqref="N45"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1898,7 +1906,9 @@
       <c r="G48" s="2">
         <v>0</v>
       </c>
-      <c r="H48" s="2"/>
+      <c r="H48" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="49" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
@@ -1922,7 +1932,9 @@
       <c r="G49" s="2">
         <v>0.1</v>
       </c>
-      <c r="H49" s="2"/>
+      <c r="H49" s="2" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="50" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
@@ -1946,7 +1958,9 @@
       <c r="G50" s="2">
         <v>0</v>
       </c>
-      <c r="H50" s="2"/>
+      <c r="H50" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="51" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
@@ -1970,7 +1984,9 @@
       <c r="G51" s="2">
         <v>1</v>
       </c>
-      <c r="H51" s="2"/>
+      <c r="H51" s="2" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="52" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">

--- a/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="123">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,10 +97,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경상남도 산청군 삼장면 친환경로 460-22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>경기도 연천군 청산면 대전리 산167-4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -109,18 +105,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>충청북도 청주시 미원면 성대2길 59</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>지리산맑은샘물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>경상남도 산청군 시천면 내대리 457</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>우리샘물</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -298,6 +286,227 @@
   </si>
   <si>
     <t>아이시스(평화)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남 산청군 삼장면 친환경로 460-22</t>
+  </si>
+  <si>
+    <t>경남 산청군 시천면 내대리 457</t>
+  </si>
+  <si>
+    <t>충북 청주시 미원면 성대2길 59</t>
+  </si>
+  <si>
+    <t>에이워터 내추럴 알칼리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 영동군 학산면 용화양강로 1480</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>37.4 미네랄 워터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물마루</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광주광역시 서구 월드컵4강로 112번길 7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>춘천 옥산가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원도 춘천시 동면 금옥길 136-9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이웰88알칼리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 여주시 강천면 다리골길 37-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리본워터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>면역수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Zn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제주시 구좌읍 일주동로 2706-28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에이수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니온 천년 알칼리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오투유</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산소통통</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>용암수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수피아 17배 산소수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충남 공주시 유구읍 부곡산성로 338-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>산소랑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다현수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 보은군 내북면 산청상궁로 748</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이뮨라이프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 가평군 상면 비룡로 2217-17</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네랄메이킹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>당하수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>충북 음성군 생극면 중원대로 124</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>뉴글라세</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종시 금남면 초정길 95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닥터M</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴웰수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일라이트 자연한모금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일라이트 pH한모금</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네락 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미다수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기정수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경북 울진군 죽변면 해양과학길 22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 양평군 강하면 전의3길 90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>닥터코아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파동수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세종시 연동면 노송강당길 24-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미네락 600</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리얼마미수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이즈미오</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>덕유산수소워터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남 함양군 서상면 추하뒷길 18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>퓨워터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경남 의령군 부림면 오소길 53</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앤케이워터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경기도 군포시 농심로 2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -663,13 +872,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomRight" activeCell="L125" sqref="L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -677,14 +886,14 @@
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="21.5" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="10" width="9" style="2"/>
-    <col min="11" max="11" width="34.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="4" max="11" width="9" style="2"/>
+    <col min="12" max="12" width="34.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -708,21 +917,24 @@
         <v>5</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>8</v>
@@ -744,16 +956,17 @@
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
-      <c r="K2" s="2" t="s">
+      <c r="K2" s="4"/>
+      <c r="L2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>9</v>
@@ -775,13 +988,14 @@
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="4"/>
+      <c r="L3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>11</v>
@@ -806,13 +1020,14 @@
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="2" t="s">
+      <c r="K4" s="4"/>
+      <c r="L4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>11</v>
@@ -837,16 +1052,17 @@
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="2" t="s">
+      <c r="K5" s="4"/>
+      <c r="L5" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>8</v>
@@ -868,16 +1084,17 @@
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="2" t="s">
+      <c r="K6" s="4"/>
+      <c r="L6" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>9</v>
@@ -899,13 +1116,14 @@
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="4"/>
+      <c r="L7" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>14</v>
@@ -930,13 +1148,14 @@
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="4"/>
+      <c r="L8" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>14</v>
@@ -961,16 +1180,17 @@
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="4"/>
+      <c r="L9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>8</v>
@@ -992,16 +1212,17 @@
       </c>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4"/>
+      <c r="L10" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>9</v>
@@ -1023,13 +1244,14 @@
       </c>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="4"/>
+      <c r="L11" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>16</v>
@@ -1054,13 +1276,14 @@
       </c>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="4"/>
+      <c r="L12" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>16</v>
@@ -1085,13 +1308,14 @@
       </c>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="4"/>
+      <c r="L13" s="2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>18</v>
@@ -1116,13 +1340,14 @@
       </c>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
-      <c r="K14" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K14" s="4"/>
+      <c r="L14" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>18</v>
@@ -1147,16 +1372,17 @@
       </c>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
-      <c r="K15" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K15" s="4"/>
+      <c r="L15" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>8</v>
@@ -1178,16 +1404,17 @@
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
-      <c r="K16" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="4"/>
+      <c r="L16" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>9</v>
@@ -1209,16 +1436,17 @@
       </c>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="4"/>
+      <c r="L17" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>8</v>
@@ -1240,16 +1468,17 @@
       </c>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
-      <c r="K18" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K18" s="4"/>
+      <c r="L18" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>9</v>
@@ -1271,16 +1500,17 @@
       </c>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
-      <c r="K19" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K19" s="4"/>
+      <c r="L19" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>8</v>
@@ -1302,16 +1532,17 @@
       </c>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
-      <c r="K20" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="4"/>
+      <c r="L20" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C21" s="3" t="s">
         <v>9</v>
@@ -1333,16 +1564,17 @@
       </c>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
-      <c r="K21" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K21" s="4"/>
+      <c r="L21" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>8</v>
@@ -1364,16 +1596,17 @@
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
-      <c r="K22" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="4"/>
+      <c r="L22" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>9</v>
@@ -1395,16 +1628,17 @@
       </c>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
-      <c r="K23" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K23" s="4"/>
+      <c r="L23" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>8</v>
@@ -1426,16 +1660,17 @@
       </c>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
-      <c r="K24" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K24" s="4"/>
+      <c r="L24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>9</v>
@@ -1457,19 +1692,20 @@
       </c>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
-      <c r="K25" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K25" s="4"/>
+      <c r="L25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D26" s="4">
         <v>13.94</v>
@@ -1488,19 +1724,20 @@
       </c>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
-      <c r="K26" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K26" s="4"/>
+      <c r="L26" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D27" s="4">
         <v>19.989999999999998</v>
@@ -1519,19 +1756,20 @@
       </c>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="4"/>
+      <c r="L27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D28" s="4">
         <v>8.1</v>
@@ -1550,19 +1788,20 @@
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
-      <c r="K28" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="4"/>
+      <c r="L28" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D29" s="4">
         <v>13.5</v>
@@ -1581,19 +1820,20 @@
       </c>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
-      <c r="K29" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="4"/>
+      <c r="L29" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D30" s="4">
         <v>17.8</v>
@@ -1612,19 +1852,20 @@
       </c>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
-      <c r="K30" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="4"/>
+      <c r="L30" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D31" s="4">
         <v>28.3</v>
@@ -1643,19 +1884,20 @@
       </c>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K31" s="4"/>
+      <c r="L31" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D32" s="4">
         <v>9.6999999999999993</v>
@@ -1674,19 +1916,20 @@
       </c>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
-      <c r="K32" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K32" s="4"/>
+      <c r="L32" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D33" s="4">
         <v>14.7</v>
@@ -1705,19 +1948,20 @@
       </c>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
-      <c r="K33" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K33" s="4"/>
+      <c r="L33" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D34" s="4">
         <v>5.7</v>
@@ -1736,19 +1980,20 @@
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
-      <c r="K34" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K34" s="4"/>
+      <c r="L34" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D35" s="4">
         <v>5.7</v>
@@ -1767,19 +2012,20 @@
       </c>
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
-      <c r="K35" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K35" s="4"/>
+      <c r="L35" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D36" s="4">
         <v>6.8</v>
@@ -1798,19 +2044,20 @@
       </c>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
-      <c r="K36" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K36" s="4"/>
+      <c r="L36" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D37" s="4">
         <v>6.8</v>
@@ -1829,19 +2076,20 @@
       </c>
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
-      <c r="K37" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K37" s="4"/>
+      <c r="L37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D38" s="4">
         <v>20</v>
@@ -1860,19 +2108,20 @@
       </c>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
-      <c r="K38" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K38" s="4"/>
+      <c r="L38" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D39" s="4">
         <v>40</v>
@@ -1891,19 +2140,20 @@
       </c>
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
-      <c r="K39" s="2" t="s">
+      <c r="K39" s="4"/>
+      <c r="L39" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C40" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D40" s="4">
         <v>5.6</v>
@@ -1922,19 +2172,20 @@
       </c>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
-      <c r="K40" s="2" t="s">
+      <c r="K40" s="4"/>
+      <c r="L40" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C41" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D41" s="4">
         <v>5.6</v>
@@ -1953,19 +2204,20 @@
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
-      <c r="K41" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K41" s="4"/>
+      <c r="L41" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D42" s="4">
         <v>45</v>
@@ -1984,19 +2236,20 @@
       </c>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
-      <c r="K42" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K42" s="4"/>
+      <c r="L42" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D43" s="4">
         <v>45</v>
@@ -2015,19 +2268,20 @@
       </c>
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
-      <c r="K43" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K43" s="4"/>
+      <c r="L43" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D44" s="4">
         <v>47.1</v>
@@ -2046,19 +2300,20 @@
       </c>
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
-      <c r="K44" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K44" s="4"/>
+      <c r="L44" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D45" s="4">
         <v>47.1</v>
@@ -2077,16 +2332,17 @@
       </c>
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
-      <c r="K45" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K45" s="4"/>
+      <c r="L45" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>8</v>
@@ -2106,16 +2362,16 @@
       <c r="H46" s="2">
         <v>0.1</v>
       </c>
-      <c r="K46" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L46" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>9</v>
@@ -2135,16 +2391,16 @@
       <c r="H47" s="2">
         <v>0.4</v>
       </c>
-      <c r="K47" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L47" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>8</v>
@@ -2164,16 +2420,16 @@
       <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="K48" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L48" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>9</v>
@@ -2193,19 +2449,19 @@
       <c r="H49" s="2">
         <v>0.1</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L49" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D50" s="2">
         <v>13.5</v>
@@ -2222,19 +2478,19 @@
       <c r="H50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L50" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D51" s="2">
         <v>17</v>
@@ -2251,19 +2507,19 @@
       <c r="H51" s="2">
         <v>1</v>
       </c>
-      <c r="K51" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L51" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D52" s="2">
         <v>8.1</v>
@@ -2280,19 +2536,19 @@
       <c r="H52" s="2">
         <v>0.5</v>
       </c>
-      <c r="K52" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L52" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D53" s="2">
         <v>13.5</v>
@@ -2309,19 +2565,19 @@
       <c r="H53" s="2">
         <v>0.7</v>
       </c>
-      <c r="K53" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D54" s="2">
         <v>9.6999999999999993</v>
@@ -2338,19 +2594,19 @@
       <c r="H54" s="2">
         <v>0</v>
       </c>
-      <c r="K54" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L54" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D55" s="2">
         <v>9.9</v>
@@ -2367,19 +2623,19 @@
       <c r="H55" s="2">
         <v>0</v>
       </c>
-      <c r="K55" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L55" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B56" s="2">
-        <v>37.4</v>
+        <v>54</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D56" s="2">
         <v>5.9</v>
@@ -2399,19 +2655,19 @@
       <c r="J56" s="2">
         <v>0.06</v>
       </c>
-      <c r="K56" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L56" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B57" s="2">
-        <v>37.4</v>
+        <v>54</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D57" s="2">
         <v>5.9</v>
@@ -2431,16 +2687,16 @@
       <c r="J57" s="2">
         <v>0.06</v>
       </c>
-      <c r="K57" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L57" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>8</v>
@@ -2460,16 +2716,16 @@
       <c r="H58" s="2">
         <v>0</v>
       </c>
-      <c r="K58" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L58" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>9</v>
@@ -2489,8 +2745,1799 @@
       <c r="H59" s="2">
         <v>0.1</v>
       </c>
-      <c r="K59" s="2" t="s">
+      <c r="L59" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L60" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="L61" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D62" s="2">
+        <v>87.2</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F62" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="G62" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="I62" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L62" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="2">
+        <v>87.2</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F63" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="G63" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="I63" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L64" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L68" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L69" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" s="2">
+        <v>22</v>
+      </c>
+      <c r="F70" s="2">
+        <v>5</v>
+      </c>
+      <c r="G70" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K70" s="2">
+        <v>5</v>
+      </c>
+      <c r="L70" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" s="2">
+        <v>22</v>
+      </c>
+      <c r="F71" s="2">
+        <v>5</v>
+      </c>
+      <c r="G71" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="K71" s="2">
+        <v>5</v>
+      </c>
+      <c r="L71" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L72" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L73" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L74" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L75" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L76" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L77" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L78" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L79" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D80" s="2">
+        <v>35</v>
+      </c>
+      <c r="E80" s="2">
+        <v>12</v>
+      </c>
+      <c r="F80" s="2">
+        <v>5</v>
+      </c>
+      <c r="G80" s="2">
+        <v>5</v>
+      </c>
+      <c r="L80" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D81" s="2">
+        <v>35</v>
+      </c>
+      <c r="E81" s="2">
+        <v>12</v>
+      </c>
+      <c r="F81" s="2">
+        <v>5</v>
+      </c>
+      <c r="G81" s="2">
+        <v>5</v>
+      </c>
+      <c r="L81" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L82" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L86" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L87" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D88" s="2">
+        <v>25</v>
+      </c>
+      <c r="E88" s="2">
+        <v>11</v>
+      </c>
+      <c r="F88" s="2">
+        <v>3</v>
+      </c>
+      <c r="G88" s="2">
+        <v>21</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D89" s="2">
         <v>65</v>
+      </c>
+      <c r="E89" s="2">
+        <v>25</v>
+      </c>
+      <c r="F89" s="2">
+        <v>7</v>
+      </c>
+      <c r="G89" s="2">
+        <v>55</v>
+      </c>
+      <c r="L89" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D90" s="2">
+        <v>57</v>
+      </c>
+      <c r="E90" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="F90" s="2">
+        <v>16</v>
+      </c>
+      <c r="G90" s="2">
+        <v>10</v>
+      </c>
+      <c r="H90" s="2">
+        <v>11</v>
+      </c>
+      <c r="L90" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D91" s="2">
+        <v>87</v>
+      </c>
+      <c r="E91" s="2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F91" s="2">
+        <v>26</v>
+      </c>
+      <c r="G91" s="2">
+        <v>14.8</v>
+      </c>
+      <c r="H91" s="2">
+        <v>18</v>
+      </c>
+      <c r="L91" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L92" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L93" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L94" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="2">
+        <v>32</v>
+      </c>
+      <c r="E100" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F100" s="2">
+        <v>13.3</v>
+      </c>
+      <c r="G100" s="2">
+        <v>25</v>
+      </c>
+      <c r="I100" s="2">
+        <v>11.15</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D101" s="2">
+        <v>42</v>
+      </c>
+      <c r="E101" s="2">
+        <v>1.6</v>
+      </c>
+      <c r="F101" s="2">
+        <v>26</v>
+      </c>
+      <c r="G101" s="2">
+        <v>21.11</v>
+      </c>
+      <c r="I101" s="2">
+        <v>11.74</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="2">
+        <v>23.06</v>
+      </c>
+      <c r="E102" s="2">
+        <v>7.66</v>
+      </c>
+      <c r="F102" s="2">
+        <v>12.57</v>
+      </c>
+      <c r="G102" s="2">
+        <v>21.78</v>
+      </c>
+      <c r="I102" s="2">
+        <v>10.52</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D103" s="2">
+        <v>25.75</v>
+      </c>
+      <c r="E103" s="2">
+        <v>14.57</v>
+      </c>
+      <c r="F103" s="2">
+        <v>13.27</v>
+      </c>
+      <c r="G103" s="2">
+        <v>23.79</v>
+      </c>
+      <c r="I103" s="2">
+        <v>10.87</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D104" s="2">
+        <v>43.1</v>
+      </c>
+      <c r="E104" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="G104" s="2">
+        <v>30.8</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D105" s="2">
+        <v>64.7</v>
+      </c>
+      <c r="E105" s="2">
+        <v>5</v>
+      </c>
+      <c r="G105" s="2">
+        <v>46.2</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D106" s="2">
+        <v>43.6</v>
+      </c>
+      <c r="E106" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F106" s="2">
+        <v>13</v>
+      </c>
+      <c r="G106" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I106" s="2">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D107" s="2">
+        <v>43.6</v>
+      </c>
+      <c r="E107" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F107" s="2">
+        <v>13</v>
+      </c>
+      <c r="G107" s="2">
+        <v>7.4</v>
+      </c>
+      <c r="I107" s="2">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="E108" s="2">
+        <v>0.79</v>
+      </c>
+      <c r="F108" s="2">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="G108" s="2">
+        <v>7.2</v>
+      </c>
+      <c r="I108" s="2">
+        <v>5</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D109" s="2">
+        <v>26.6</v>
+      </c>
+      <c r="E109" s="2">
+        <v>1.05</v>
+      </c>
+      <c r="F109" s="2">
+        <v>11.1</v>
+      </c>
+      <c r="G109" s="2">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="I109" s="2">
+        <v>7.26</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D114" s="2">
+        <v>86.2</v>
+      </c>
+      <c r="E114" s="2">
+        <v>5</v>
+      </c>
+      <c r="G114" s="2">
+        <v>61.6</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D115" s="2">
+        <v>129.4</v>
+      </c>
+      <c r="E115" s="2">
+        <v>10</v>
+      </c>
+      <c r="G115" s="2">
+        <v>92.4</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D116" s="2">
+        <v>40.01</v>
+      </c>
+      <c r="E116" s="2">
+        <v>2</v>
+      </c>
+      <c r="G116" s="2">
+        <v>28.15</v>
+      </c>
+      <c r="L116" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D117" s="2">
+        <v>60.02</v>
+      </c>
+      <c r="E117" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="G117" s="2">
+        <v>42.22</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L120" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L121" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D122" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="E122" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F122" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="G122" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="I122" s="2">
+        <v>6.27</v>
+      </c>
+      <c r="L122" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D123" s="2">
+        <v>7.86</v>
+      </c>
+      <c r="E123" s="2">
+        <v>0.11</v>
+      </c>
+      <c r="F123" s="2">
+        <v>3.87</v>
+      </c>
+      <c r="G123" s="2">
+        <v>1.84</v>
+      </c>
+      <c r="I123" s="2">
+        <v>6.27</v>
+      </c>
+      <c r="L123" s="2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="L124" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="L125" s="2" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C159" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A183" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A185" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A186" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A187" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A188" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A189" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A190" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A191" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
@@ -9,6 +9,10 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$125</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="123">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -563,7 +567,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -571,22 +575,43 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -872,3677 +897,3589 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L194"/>
+  <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C114" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L125" sqref="L125"/>
+      <selection pane="bottomRight" activeCell="P106" sqref="P106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="21.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" style="3"/>
-    <col min="4" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="34.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2"/>
+    <col min="4" max="11" width="9" style="1"/>
+    <col min="12" max="12" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>2.5</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>1.5</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>4</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="6">
         <v>1.7</v>
       </c>
-      <c r="H2" s="4">
+      <c r="H2" s="6">
         <v>0</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="2" t="s">
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>4</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>3.4</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>7.2</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="6">
         <v>3.5</v>
       </c>
-      <c r="H3" s="4">
+      <c r="H3" s="6">
         <v>0</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="2" t="s">
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>8.4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>1.2</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="6">
         <v>5.9</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="6">
         <v>1.8</v>
       </c>
-      <c r="H4" s="4">
+      <c r="H4" s="6">
         <v>0.1</v>
       </c>
-      <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="2" t="s">
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>15.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>1.8</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="6">
         <v>17.7</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="6">
         <v>0.3</v>
       </c>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="2" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>21.1</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="6">
         <v>3.9</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="6">
         <v>5</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="6">
         <v>0</v>
       </c>
-      <c r="I6" s="4"/>
-      <c r="J6" s="4"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="2" t="s">
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>28.1</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>1.7</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="6">
         <v>6.8</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="6">
         <v>0.1</v>
       </c>
-      <c r="I7" s="4"/>
-      <c r="J7" s="4"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="2" t="s">
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B8" s="2" t="s">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>13.2</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>0.6</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="6">
         <v>5.46</v>
       </c>
-      <c r="G8" s="4">
+      <c r="G8" s="6">
         <v>2.3199999999999998</v>
       </c>
-      <c r="H8" s="4">
+      <c r="H8" s="6">
         <v>0.01</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="2" t="s">
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" s="2" t="s">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>19.989999999999998</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>0.82</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>7.63</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="6">
         <v>2.79</v>
       </c>
-      <c r="H9" s="4">
+      <c r="H9" s="6">
         <v>0.18</v>
       </c>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="2" t="s">
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>21.1</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>3.9</v>
       </c>
-      <c r="G10" s="4">
+      <c r="G10" s="6">
         <v>5</v>
       </c>
-      <c r="H10" s="4">
+      <c r="H10" s="6">
         <v>0</v>
       </c>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="2" t="s">
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="2" t="s">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>28.1</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>1.7</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G11" s="6">
         <v>6.8</v>
       </c>
-      <c r="H11" s="4">
+      <c r="H11" s="6">
         <v>0.1</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="2" t="s">
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="6">
         <v>3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>1.4</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="6">
         <v>4</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <v>2.1</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="6">
         <v>0</v>
       </c>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="2" t="s">
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B13" s="2" t="s">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="C13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>5.8</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>5.3</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="6">
         <v>12</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="6">
         <v>5.4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H13" s="6">
         <v>1</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="2" t="s">
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="C14" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>12.3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>0.1</v>
       </c>
-      <c r="F14" s="4">
+      <c r="F14" s="6">
         <v>4.2</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="6">
         <v>0.3</v>
       </c>
-      <c r="H14" s="4">
+      <c r="H14" s="6">
         <v>0</v>
       </c>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="2" t="s">
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B15" s="2" t="s">
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C15" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>13.6</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F15" s="4">
+      <c r="F15" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="6">
         <v>1.3</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H15" s="6">
         <v>0.2</v>
       </c>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="2" t="s">
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" s="2" t="s">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C16" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>17</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>0.5</v>
       </c>
-      <c r="F16" s="4">
+      <c r="F16" s="6">
         <v>5.4</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="6">
         <v>1.7</v>
       </c>
-      <c r="H16" s="4">
+      <c r="H16" s="6">
         <v>0.2</v>
       </c>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="2" t="s">
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B17" s="2" t="s">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="C17" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4">
+      <c r="D17" s="6">
         <v>28.3</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="6">
         <v>11.1</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="6">
         <v>3</v>
       </c>
-      <c r="H17" s="4">
+      <c r="H17" s="6">
         <v>0.5</v>
       </c>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="2" t="s">
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="2" t="s">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>14.6</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>0.8</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="6">
         <v>1.9</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="6">
         <v>6.1</v>
       </c>
-      <c r="H18" s="4">
+      <c r="H18" s="6">
         <v>0</v>
       </c>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="2" t="s">
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="2" t="s">
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C19" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>22</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="6">
         <v>2.4</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="6">
         <v>7.1</v>
       </c>
-      <c r="H19" s="4">
+      <c r="H19" s="6">
         <v>0</v>
       </c>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="2" t="s">
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B20" s="2" t="s">
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="C20" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D20" s="4">
+      <c r="D20" s="6">
         <v>15.6</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="6">
         <v>0.9</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="6">
         <v>3.4</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="6">
         <v>1.8</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="6">
         <v>0</v>
       </c>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="2" t="s">
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="2" t="s">
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="C21" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D21" s="4">
+      <c r="D21" s="6">
         <v>25</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="6">
         <v>1.6</v>
       </c>
-      <c r="F21" s="4">
+      <c r="F21" s="6">
         <v>5.3</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="6">
         <v>3</v>
       </c>
-      <c r="H21" s="4">
+      <c r="H21" s="6">
         <v>0.1</v>
       </c>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="2" t="s">
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B22" s="2" t="s">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="4">
+      <c r="D22" s="6">
         <v>15.6</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="6">
         <v>0.9</v>
       </c>
-      <c r="F22" s="4">
+      <c r="F22" s="6">
         <v>3.4</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="6">
         <v>1.8</v>
       </c>
-      <c r="H22" s="4">
+      <c r="H22" s="6">
         <v>0</v>
       </c>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="2" t="s">
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="2" t="s">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="C23" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D23" s="6">
         <v>25</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="6">
         <v>1.6</v>
       </c>
-      <c r="F23" s="4">
+      <c r="F23" s="6">
         <v>5.3</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="6">
         <v>3</v>
       </c>
-      <c r="H23" s="4">
+      <c r="H23" s="6">
         <v>0.1</v>
       </c>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="2" t="s">
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="2" t="s">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="4">
+      <c r="D24" s="6">
         <v>8.1</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="6">
         <v>0.4</v>
       </c>
-      <c r="F24" s="4">
+      <c r="F24" s="6">
         <v>4.7</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H24" s="4">
+      <c r="H24" s="6">
         <v>0.5</v>
       </c>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="2" t="s">
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="25" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="C25" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="4">
+      <c r="D25" s="6">
         <v>13.5</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="6">
         <v>0.7</v>
       </c>
-      <c r="F25" s="4">
+      <c r="F25" s="6">
         <v>6.7</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="6">
         <v>1.3</v>
       </c>
-      <c r="H25" s="4">
+      <c r="H25" s="6">
         <v>0.7</v>
       </c>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="2" t="s">
+      <c r="I25" s="6"/>
+      <c r="J25" s="6"/>
+      <c r="K25" s="6"/>
+      <c r="L25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" s="2" t="s">
+      <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="4">
+      <c r="D26" s="6">
         <v>13.94</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="6">
         <v>0.67</v>
       </c>
-      <c r="F26" s="4">
+      <c r="F26" s="6">
         <v>6.05</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="6">
         <v>2.39</v>
       </c>
-      <c r="H26" s="4">
+      <c r="H26" s="6">
         <v>0</v>
       </c>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="2" t="s">
+      <c r="I26" s="6"/>
+      <c r="J26" s="6"/>
+      <c r="K26" s="6"/>
+      <c r="L26" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D27" s="6">
         <v>19.989999999999998</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="6">
         <v>0.82</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F27" s="6">
         <v>7.63</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="6">
         <v>2.79</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H27" s="6">
         <v>0.18</v>
       </c>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="2" t="s">
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="6"/>
+      <c r="L27" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="2" t="s">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="4">
+      <c r="D28" s="6">
         <v>8.1</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="6">
         <v>0.4</v>
       </c>
-      <c r="F28" s="4">
+      <c r="F28" s="6">
         <v>4.7</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H28" s="4">
+      <c r="H28" s="6">
         <v>0.5</v>
       </c>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="2" t="s">
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B29" s="2" t="s">
+      <c r="A29" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="4">
+      <c r="D29" s="6">
         <v>13.5</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="6">
         <v>0.7</v>
       </c>
-      <c r="F29" s="4">
+      <c r="F29" s="6">
         <v>6.7</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="6">
         <v>1.3</v>
       </c>
-      <c r="H29" s="4">
+      <c r="H29" s="6">
         <v>0.7</v>
       </c>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="2" t="s">
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B30" s="2" t="s">
+      <c r="A30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D30" s="4">
+      <c r="D30" s="6">
         <v>17.8</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="6">
         <v>0.5</v>
       </c>
-      <c r="F30" s="4">
+      <c r="F30" s="6">
         <v>5.4</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="6">
         <v>1.7</v>
       </c>
-      <c r="H30" s="4">
+      <c r="H30" s="6">
         <v>0.2</v>
       </c>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="2" t="s">
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
+      <c r="K30" s="6"/>
+      <c r="L30" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="31" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B31" s="2" t="s">
+      <c r="A31" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="C31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D31" s="4">
+      <c r="D31" s="6">
         <v>28.3</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="6">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F31" s="4">
+      <c r="F31" s="6">
         <v>11.1</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="6">
         <v>3</v>
       </c>
-      <c r="H31" s="4">
+      <c r="H31" s="6">
         <v>0.5</v>
       </c>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="2" t="s">
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
+      <c r="K31" s="6"/>
+      <c r="L31" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="32" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B32" s="2" t="s">
+      <c r="A32" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="C32" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D32" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="6">
         <v>0.3</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F32" s="6">
         <v>5.2</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="6">
         <v>1.3</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H32" s="6">
         <v>0</v>
       </c>
-      <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="2" t="s">
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="33" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B33" s="2" t="s">
+      <c r="A33" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="C33" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D33" s="4">
+      <c r="D33" s="6">
         <v>14.7</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="6">
         <v>0.6</v>
       </c>
-      <c r="F33" s="4">
+      <c r="F33" s="6">
         <v>8</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="6">
         <v>2.1</v>
       </c>
-      <c r="H33" s="4">
+      <c r="H33" s="6">
         <v>0.2</v>
       </c>
-      <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="2" t="s">
+      <c r="I33" s="6"/>
+      <c r="J33" s="6"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="2" t="s">
+      <c r="A34" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C34" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D34" s="6">
         <v>5.7</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="6">
         <v>0.7</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F34" s="6">
         <v>11</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="6">
         <v>2</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H34" s="6">
         <v>0</v>
       </c>
-      <c r="I34" s="4"/>
-      <c r="J34" s="4"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="2" t="s">
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B35" s="2" t="s">
+      <c r="A35" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B35" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C35" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D35" s="4">
+      <c r="D35" s="6">
         <v>5.7</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="6">
         <v>0.7</v>
       </c>
-      <c r="F35" s="4">
+      <c r="F35" s="6">
         <v>11</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="6">
         <v>2</v>
       </c>
-      <c r="H35" s="4">
+      <c r="H35" s="6">
         <v>0</v>
       </c>
-      <c r="I35" s="4"/>
-      <c r="J35" s="4"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="2" t="s">
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B36" s="2" t="s">
+      <c r="A36" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C36" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D36" s="4">
+      <c r="D36" s="6">
         <v>6.8</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="6">
         <v>0.96</v>
       </c>
-      <c r="F36" s="4">
+      <c r="F36" s="6">
         <v>1.6</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="6">
         <v>0.6</v>
       </c>
-      <c r="H36" s="4">
+      <c r="H36" s="6">
         <v>0.1</v>
       </c>
-      <c r="I36" s="4"/>
-      <c r="J36" s="4"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="2" t="s">
+      <c r="I36" s="6"/>
+      <c r="J36" s="6"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="37" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B37" s="2" t="s">
+      <c r="A37" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B37" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C37" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D37" s="4">
+      <c r="D37" s="6">
         <v>6.8</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="6">
         <v>0.96</v>
       </c>
-      <c r="F37" s="4">
+      <c r="F37" s="6">
         <v>1.6</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="6">
         <v>0.6</v>
       </c>
-      <c r="H37" s="4">
+      <c r="H37" s="6">
         <v>0.1</v>
       </c>
-      <c r="I37" s="4"/>
-      <c r="J37" s="4"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="2" t="s">
+      <c r="I37" s="6"/>
+      <c r="J37" s="6"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B38" s="2" t="s">
+      <c r="A38" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C38" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D38" s="4">
+      <c r="D38" s="6">
         <v>20</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="6">
         <v>2</v>
       </c>
-      <c r="F38" s="4">
+      <c r="F38" s="6">
         <v>5</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="6">
         <v>4.5</v>
       </c>
-      <c r="H38" s="4">
+      <c r="H38" s="6">
         <v>0</v>
       </c>
-      <c r="I38" s="4"/>
-      <c r="J38" s="4"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="2" t="s">
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="2" t="s">
+      <c r="A39" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="C39" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D39" s="4">
+      <c r="D39" s="6">
         <v>40</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="6">
         <v>3.5</v>
       </c>
-      <c r="F39" s="4">
+      <c r="F39" s="6">
         <v>15</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="6">
         <v>15</v>
       </c>
-      <c r="H39" s="4">
+      <c r="H39" s="6">
         <v>0.01</v>
       </c>
-      <c r="I39" s="4"/>
-      <c r="J39" s="4"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="2" t="s">
+      <c r="I39" s="6"/>
+      <c r="J39" s="6"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="2" t="s">
+      <c r="A40" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="3" t="s">
+      <c r="C40" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="4">
+      <c r="D40" s="6">
         <v>5.6</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="6">
         <v>2.12</v>
       </c>
-      <c r="F40" s="4">
+      <c r="F40" s="6">
         <v>10.6</v>
       </c>
-      <c r="G40" s="4">
+      <c r="G40" s="6">
         <v>14.9</v>
       </c>
-      <c r="H40" s="4">
+      <c r="H40" s="6">
         <v>0.19</v>
       </c>
-      <c r="I40" s="4"/>
-      <c r="J40" s="4"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="2" t="s">
+      <c r="I40" s="6"/>
+      <c r="J40" s="6"/>
+      <c r="K40" s="6"/>
+      <c r="L40" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B41" s="2" t="s">
+      <c r="A41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C41" s="3" t="s">
+      <c r="C41" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D41" s="4">
+      <c r="D41" s="6">
         <v>5.6</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="6">
         <v>2.12</v>
       </c>
-      <c r="F41" s="4">
+      <c r="F41" s="6">
         <v>10.6</v>
       </c>
-      <c r="G41" s="4">
+      <c r="G41" s="6">
         <v>14.9</v>
       </c>
-      <c r="H41" s="4">
+      <c r="H41" s="6">
         <v>0.19</v>
       </c>
-      <c r="I41" s="4"/>
-      <c r="J41" s="4"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="2" t="s">
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B42" s="2" t="s">
+      <c r="A42" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C42" s="3" t="s">
+      <c r="C42" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="6">
         <v>45</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="6">
         <v>1</v>
       </c>
-      <c r="F42" s="4">
+      <c r="F42" s="6">
         <v>2</v>
       </c>
-      <c r="G42" s="4">
+      <c r="G42" s="6">
         <v>13</v>
       </c>
-      <c r="H42" s="4">
+      <c r="H42" s="6">
         <v>0</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="4"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="2" t="s">
+      <c r="I42" s="6"/>
+      <c r="J42" s="6"/>
+      <c r="K42" s="6"/>
+      <c r="L42" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B43" s="2" t="s">
+      <c r="A43" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B43" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C43" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D43" s="4">
+      <c r="D43" s="6">
         <v>45</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="6">
         <v>1</v>
       </c>
-      <c r="F43" s="4">
+      <c r="F43" s="6">
         <v>2</v>
       </c>
-      <c r="G43" s="4">
+      <c r="G43" s="6">
         <v>13</v>
       </c>
-      <c r="H43" s="4">
+      <c r="H43" s="6">
         <v>0</v>
       </c>
-      <c r="I43" s="4"/>
-      <c r="J43" s="4"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="2" t="s">
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B44" s="2" t="s">
+      <c r="A44" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C44" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D44" s="4">
+      <c r="D44" s="6">
         <v>47.1</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="6">
         <v>0.94</v>
       </c>
-      <c r="F44" s="4">
+      <c r="F44" s="6">
         <v>5.7</v>
       </c>
-      <c r="G44" s="4">
+      <c r="G44" s="6">
         <v>26.9</v>
       </c>
-      <c r="H44" s="4">
+      <c r="H44" s="6">
         <v>0.1</v>
       </c>
-      <c r="I44" s="4"/>
-      <c r="J44" s="4"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="2" t="s">
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B45" s="2" t="s">
+      <c r="A45" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C45" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D45" s="4">
+      <c r="D45" s="6">
         <v>47.1</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E45" s="6">
         <v>0.94</v>
       </c>
-      <c r="F45" s="4">
+      <c r="F45" s="6">
         <v>5.7</v>
       </c>
-      <c r="G45" s="4">
+      <c r="G45" s="6">
         <v>26.9</v>
       </c>
-      <c r="H45" s="4">
+      <c r="H45" s="6">
         <v>0.1</v>
       </c>
-      <c r="I45" s="4"/>
-      <c r="J45" s="4"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="2" t="s">
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B46" s="2" t="s">
+      <c r="A46" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C46" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D46" s="2">
+      <c r="D46" s="4">
         <v>26.6</v>
       </c>
-      <c r="E46" s="2">
+      <c r="E46" s="4">
         <v>0.9</v>
       </c>
-      <c r="F46" s="2">
+      <c r="F46" s="4">
         <v>8.4</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="4">
         <v>0.1</v>
       </c>
-      <c r="L46" s="2" t="s">
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B47" s="2" t="s">
+      <c r="A47" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B47" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="3" t="s">
+      <c r="C47" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D47" s="2">
+      <c r="D47" s="4">
         <v>37.9</v>
       </c>
-      <c r="E47" s="2">
+      <c r="E47" s="4">
         <v>2</v>
       </c>
-      <c r="F47" s="2">
+      <c r="F47" s="4">
         <v>11.5</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="4">
         <v>4.7</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="4">
         <v>0.4</v>
       </c>
-      <c r="L47" s="2" t="s">
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="48" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B48" s="2" t="s">
+      <c r="A48" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D48" s="2">
+      <c r="D48" s="4">
         <v>21.1</v>
       </c>
-      <c r="E48" s="2">
+      <c r="E48" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="4">
         <v>3.9</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="4">
         <v>5</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="4">
         <v>0</v>
       </c>
-      <c r="L48" s="2" t="s">
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="49" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B49" s="2" t="s">
+      <c r="A49" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C49" s="3" t="s">
+      <c r="C49" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D49" s="2">
+      <c r="D49" s="4">
         <v>28.1</v>
       </c>
-      <c r="E49" s="2">
+      <c r="E49" s="4">
         <v>1.7</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="4">
         <v>6.8</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="4">
         <v>0.1</v>
       </c>
-      <c r="L49" s="2" t="s">
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B50" s="2" t="s">
+      <c r="A50" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B50" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C50" s="3" t="s">
+      <c r="C50" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D50" s="2">
+      <c r="D50" s="4">
         <v>13.5</v>
       </c>
-      <c r="E50" s="2">
+      <c r="E50" s="4">
         <v>0.4</v>
       </c>
-      <c r="F50" s="2">
+      <c r="F50" s="4">
         <v>9</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="4">
         <v>1.4</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="4">
         <v>0</v>
       </c>
-      <c r="L50" s="2" t="s">
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="51" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B51" s="2" t="s">
+      <c r="A51" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C51" s="3" t="s">
+      <c r="C51" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D51" s="2">
+      <c r="D51" s="4">
         <v>17</v>
       </c>
-      <c r="E51" s="2">
+      <c r="E51" s="4">
         <v>0.6</v>
       </c>
-      <c r="F51" s="2">
+      <c r="F51" s="4">
         <v>12</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="4">
         <v>2.5</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="4">
         <v>1</v>
       </c>
-      <c r="L51" s="2" t="s">
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="52" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B52" s="2" t="s">
+      <c r="A52" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B52" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C52" s="3" t="s">
+      <c r="C52" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D52" s="2">
+      <c r="D52" s="4">
         <v>8.1</v>
       </c>
-      <c r="E52" s="2">
+      <c r="E52" s="4">
         <v>0.4</v>
       </c>
-      <c r="F52" s="2">
+      <c r="F52" s="4">
         <v>4.7</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="4">
         <v>0.5</v>
       </c>
-      <c r="L52" s="2" t="s">
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B53" s="2" t="s">
+      <c r="A53" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="2">
+      <c r="D53" s="4">
         <v>13.5</v>
       </c>
-      <c r="E53" s="2">
+      <c r="E53" s="4">
         <v>0.7</v>
       </c>
-      <c r="F53" s="2">
+      <c r="F53" s="4">
         <v>6.7</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="4">
         <v>1.3</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="4">
         <v>0.7</v>
       </c>
-      <c r="L53" s="2" t="s">
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="54" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="2" t="s">
+      <c r="A54" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B54" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C54" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D54" s="2">
+      <c r="D54" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E54" s="2">
+      <c r="E54" s="4">
         <v>4.3</v>
       </c>
-      <c r="F54" s="2">
+      <c r="F54" s="4">
         <v>0.9</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="4">
         <v>1.2</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="4">
         <v>0</v>
       </c>
-      <c r="L54" s="2" t="s">
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B55" s="2" t="s">
+      <c r="A55" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B55" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C55" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D55" s="2">
+      <c r="D55" s="4">
         <v>9.9</v>
       </c>
-      <c r="E55" s="2">
+      <c r="E55" s="4">
         <v>4.5</v>
       </c>
-      <c r="F55" s="2">
+      <c r="F55" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="4">
         <v>1.5</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="4">
         <v>0</v>
       </c>
-      <c r="L55" s="2" t="s">
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="56" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" s="2" t="s">
+      <c r="A56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C56" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D56" s="2">
+      <c r="D56" s="4">
         <v>5.9</v>
       </c>
-      <c r="E56" s="2">
+      <c r="E56" s="4">
         <v>0.21</v>
       </c>
-      <c r="F56" s="2">
+      <c r="F56" s="4">
         <v>3.96</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="4">
         <v>2.1</v>
       </c>
-      <c r="I56" s="2">
+      <c r="H56" s="4"/>
+      <c r="I56" s="4">
         <v>3.35</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="4">
         <v>0.06</v>
       </c>
-      <c r="L56" s="2" t="s">
+      <c r="K56" s="4"/>
+      <c r="L56" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B57" s="2" t="s">
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="C57" s="3" t="s">
+      <c r="C57" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D57" s="2">
+      <c r="D57" s="4">
         <v>5.9</v>
       </c>
-      <c r="E57" s="2">
+      <c r="E57" s="4">
         <v>0.21</v>
       </c>
-      <c r="F57" s="2">
+      <c r="F57" s="4">
         <v>3.96</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="4">
         <v>2.1</v>
       </c>
-      <c r="I57" s="2">
+      <c r="H57" s="4"/>
+      <c r="I57" s="4">
         <v>3.35</v>
       </c>
-      <c r="J57" s="2">
+      <c r="J57" s="4">
         <v>0.06</v>
       </c>
-      <c r="L57" s="2" t="s">
+      <c r="K57" s="4"/>
+      <c r="L57" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="58" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B58" s="2" t="s">
+      <c r="A58" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C58" s="3" t="s">
+      <c r="C58" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D58" s="2">
+      <c r="D58" s="4">
         <v>15.6</v>
       </c>
-      <c r="E58" s="2">
+      <c r="E58" s="4">
         <v>0.9</v>
       </c>
-      <c r="F58" s="2">
+      <c r="F58" s="4">
         <v>3.4</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="4">
         <v>1.8</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="4">
         <v>0</v>
       </c>
-      <c r="L58" s="2" t="s">
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B59" s="2" t="s">
+      <c r="A59" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C59" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="D59" s="2">
+      <c r="D59" s="4">
         <v>25</v>
       </c>
-      <c r="E59" s="2">
+      <c r="E59" s="4">
         <v>1.6</v>
       </c>
-      <c r="F59" s="2">
+      <c r="F59" s="4">
         <v>5.3</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="4">
         <v>3</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="4">
         <v>0.1</v>
       </c>
-      <c r="L59" s="2" t="s">
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B60" s="2" t="s">
+      <c r="A60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C60" s="3" t="s">
+      <c r="C60" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="L60" s="2" t="s">
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B61" s="2" t="s">
+      <c r="A61" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C61" s="3" t="s">
+      <c r="C61" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L61" s="2" t="s">
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B62" s="2" t="s">
+      <c r="A62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C62" s="3" t="s">
+      <c r="C62" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D62" s="2">
+      <c r="D62" s="4">
         <v>87.2</v>
       </c>
-      <c r="E62" s="2">
+      <c r="E62" s="4">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F62" s="2">
+      <c r="F62" s="4">
         <v>26.1</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="4">
         <v>14.8</v>
       </c>
-      <c r="I62" s="2">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="L62" s="2" t="s">
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B63" s="2" t="s">
+      <c r="A63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="C63" s="3" t="s">
+      <c r="C63" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D63" s="2">
+      <c r="D63" s="4">
         <v>87.2</v>
       </c>
-      <c r="E63" s="2">
+      <c r="E63" s="4">
         <v>2.2799999999999998</v>
       </c>
-      <c r="F63" s="2">
+      <c r="F63" s="4">
         <v>26.1</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="4">
         <v>14.8</v>
       </c>
-      <c r="I63" s="2">
+      <c r="H63" s="4"/>
+      <c r="I63" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="L63" s="2" t="s">
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="64" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B64" s="2" t="s">
+      <c r="A64" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B64" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C64" s="3" t="s">
+      <c r="C64" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L64" s="2" t="s">
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B65" s="2" t="s">
+      <c r="A65" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B65" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C65" s="3" t="s">
+      <c r="C65" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L65" s="2" t="s">
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="66" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B66" s="2" t="s">
+      <c r="A66" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B66" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C66" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L66" s="2" t="s">
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B67" s="2" t="s">
+      <c r="A67" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C67" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L67" s="2" t="s">
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="68" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B68" s="2" t="s">
+      <c r="A68" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B68" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C68" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L68" s="2" t="s">
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="69" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="2" t="s">
+      <c r="A69" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B69" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C69" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L69" s="2" t="s">
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="70" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B70" s="2" t="s">
+      <c r="A70" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C70" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D70" s="2">
+      <c r="D70" s="4">
         <v>22</v>
       </c>
-      <c r="F70" s="2">
+      <c r="E70" s="4"/>
+      <c r="F70" s="4">
         <v>5</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="4">
         <v>2.5</v>
       </c>
-      <c r="K70" s="2">
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="4">
         <v>5</v>
       </c>
-      <c r="L70" s="2" t="s">
+      <c r="L70" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B71" s="2" t="s">
+      <c r="A71" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B71" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C71" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D71" s="2">
+      <c r="D71" s="4">
         <v>22</v>
       </c>
-      <c r="F71" s="2">
+      <c r="E71" s="4"/>
+      <c r="F71" s="4">
         <v>5</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="4">
         <v>2.5</v>
       </c>
-      <c r="K71" s="2">
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4">
         <v>5</v>
       </c>
-      <c r="L71" s="2" t="s">
+      <c r="L71" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="72" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B72" s="2" t="s">
+      <c r="A72" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C72" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L72" s="2" t="s">
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="73" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B73" s="2" t="s">
+      <c r="A73" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B73" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L73" s="2" t="s">
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="74" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B74" s="2" t="s">
+      <c r="A74" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B74" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L74" s="2" t="s">
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="75" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B75" s="2" t="s">
+      <c r="A75" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B75" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="C75" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L75" s="2" t="s">
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B76" s="2" t="s">
+      <c r="A76" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C76" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L76" s="2" t="s">
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="2" t="s">
+      <c r="A77" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="C77" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L77" s="2" t="s">
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B78" s="2" t="s">
+      <c r="A78" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="C78" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L78" s="2" t="s">
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="79" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B79" s="2" t="s">
+      <c r="A79" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B79" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="C79" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L79" s="2" t="s">
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="80" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B80" s="2" t="s">
+      <c r="A80" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B80" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="C80" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D80" s="4">
         <v>35</v>
       </c>
-      <c r="E80" s="2">
+      <c r="E80" s="4">
         <v>12</v>
       </c>
-      <c r="F80" s="2">
+      <c r="F80" s="4">
         <v>5</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="4">
         <v>5</v>
       </c>
-      <c r="L80" s="2" t="s">
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="81" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B81" s="2" t="s">
+      <c r="A81" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="C81" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D81" s="4">
         <v>35</v>
       </c>
-      <c r="E81" s="2">
+      <c r="E81" s="4">
         <v>12</v>
       </c>
-      <c r="F81" s="2">
+      <c r="F81" s="4">
         <v>5</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="4">
         <v>5</v>
       </c>
-      <c r="L81" s="2" t="s">
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="82" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B82" s="2" t="s">
+      <c r="A82" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B82" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="C82" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L82" s="2" t="s">
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="83" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B83" s="2" t="s">
+      <c r="A83" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="C83" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
     </row>
     <row r="84" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B84" s="2" t="s">
+      <c r="A84" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="C84" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
     </row>
     <row r="85" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B85" s="2" t="s">
+      <c r="A85" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B85" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="C85" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
     </row>
     <row r="86" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B86" s="2" t="s">
+      <c r="A86" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="C86" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L86" s="2" t="s">
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="87" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B87" s="2" t="s">
+      <c r="A87" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B87" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="C87" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L87" s="2" t="s">
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="88" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" s="2" t="s">
+      <c r="A88" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C88" s="3" t="s">
+      <c r="C88" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D88" s="4">
         <v>25</v>
       </c>
-      <c r="E88" s="2">
+      <c r="E88" s="4">
         <v>11</v>
       </c>
-      <c r="F88" s="2">
+      <c r="F88" s="4">
         <v>3</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="4">
         <v>21</v>
       </c>
-      <c r="L88" s="2" t="s">
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="89" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B89" s="2" t="s">
+      <c r="A89" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="C89" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D89" s="4">
         <v>65</v>
       </c>
-      <c r="E89" s="2">
+      <c r="E89" s="4">
         <v>25</v>
       </c>
-      <c r="F89" s="2">
+      <c r="F89" s="4">
         <v>7</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89" s="4">
         <v>55</v>
       </c>
-      <c r="L89" s="2" t="s">
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="90" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B90" s="2" t="s">
+      <c r="A90" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C90" s="3" t="s">
+      <c r="C90" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D90" s="4">
         <v>57</v>
       </c>
-      <c r="E90" s="2">
+      <c r="E90" s="4">
         <v>1.5</v>
       </c>
-      <c r="F90" s="2">
+      <c r="F90" s="4">
         <v>16</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="4">
         <v>10</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="4">
         <v>11</v>
       </c>
-      <c r="L90" s="2" t="s">
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="91" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B91" s="2" t="s">
+      <c r="A91" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B91" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="C91" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D91" s="4">
         <v>87</v>
       </c>
-      <c r="E91" s="2">
+      <c r="E91" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="F91" s="2">
+      <c r="F91" s="4">
         <v>26</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="4">
         <v>14.8</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="4">
         <v>18</v>
       </c>
-      <c r="L91" s="2" t="s">
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="92" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B92" s="2" t="s">
+      <c r="A92" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="C92" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L92" s="2" t="s">
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="93" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B93" s="2" t="s">
+      <c r="A93" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C93" s="3" t="s">
+      <c r="C93" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L93" s="2" t="s">
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B94" s="2" t="s">
+      <c r="A94" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B94" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="C94" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L94" s="2" t="s">
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="95" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B95" s="2" t="s">
+      <c r="A95" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="C95" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L95" s="2" t="s">
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B96" s="2" t="s">
+      <c r="A96" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="C96" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L96" s="2" t="s">
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B97" s="2" t="s">
+      <c r="A97" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B97" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="C97" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L97" s="2" t="s">
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B98" s="2" t="s">
+      <c r="A98" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C98" s="3" t="s">
+      <c r="C98" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L98" s="2" t="s">
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B99" s="2" t="s">
+      <c r="A99" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B99" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="C99" s="3" t="s">
+      <c r="C99" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L99" s="2" t="s">
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B100" s="2" t="s">
+      <c r="A100" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B100" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="C100" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D100" s="4">
         <v>32</v>
       </c>
-      <c r="E100" s="2">
+      <c r="E100" s="4">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F100" s="2">
+      <c r="F100" s="4">
         <v>13.3</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="4">
         <v>25</v>
       </c>
-      <c r="I100" s="2">
+      <c r="H100" s="4"/>
+      <c r="I100" s="4">
         <v>11.15</v>
       </c>
-      <c r="L100" s="2" t="s">
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B101" s="2" t="s">
+      <c r="A101" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B101" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="C101" s="3" t="s">
+      <c r="C101" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D101" s="4">
         <v>42</v>
       </c>
-      <c r="E101" s="2">
+      <c r="E101" s="4">
         <v>1.6</v>
       </c>
-      <c r="F101" s="2">
+      <c r="F101" s="4">
         <v>26</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="4">
         <v>21.11</v>
       </c>
-      <c r="I101" s="2">
+      <c r="H101" s="4"/>
+      <c r="I101" s="4">
         <v>11.74</v>
       </c>
-      <c r="L101" s="2" t="s">
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B102" s="2" t="s">
+      <c r="A102" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B102" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C102" s="3" t="s">
+      <c r="C102" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D102" s="4">
         <v>23.06</v>
       </c>
-      <c r="E102" s="2">
+      <c r="E102" s="4">
         <v>7.66</v>
       </c>
-      <c r="F102" s="2">
+      <c r="F102" s="4">
         <v>12.57</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="4">
         <v>21.78</v>
       </c>
-      <c r="I102" s="2">
+      <c r="H102" s="4"/>
+      <c r="I102" s="4">
         <v>10.52</v>
       </c>
-      <c r="L102" s="2" t="s">
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B103" s="2" t="s">
+      <c r="A103" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="C103" s="3" t="s">
+      <c r="C103" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D103" s="2">
+      <c r="D103" s="4">
         <v>25.75</v>
       </c>
-      <c r="E103" s="2">
+      <c r="E103" s="4">
         <v>14.57</v>
       </c>
-      <c r="F103" s="2">
+      <c r="F103" s="4">
         <v>13.27</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="4">
         <v>23.79</v>
       </c>
-      <c r="I103" s="2">
+      <c r="H103" s="4"/>
+      <c r="I103" s="4">
         <v>10.87</v>
       </c>
-      <c r="L103" s="2" t="s">
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B104" s="2" t="s">
+      <c r="A104" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C104" s="3" t="s">
+      <c r="C104" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D104" s="2">
+      <c r="D104" s="4">
         <v>43.1</v>
       </c>
-      <c r="E104" s="2">
+      <c r="E104" s="4">
         <v>2.5</v>
       </c>
-      <c r="G104" s="2">
+      <c r="F104" s="4"/>
+      <c r="G104" s="4">
         <v>30.8</v>
       </c>
-      <c r="L104" s="2" t="s">
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="105" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B105" s="2" t="s">
+      <c r="A105" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="C105" s="3" t="s">
+      <c r="C105" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D105" s="2">
+      <c r="D105" s="4">
         <v>64.7</v>
       </c>
-      <c r="E105" s="2">
+      <c r="E105" s="4">
         <v>5</v>
       </c>
-      <c r="G105" s="2">
+      <c r="F105" s="4"/>
+      <c r="G105" s="4">
         <v>46.2</v>
       </c>
-      <c r="L105" s="2" t="s">
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="106" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B106" s="2" t="s">
+      <c r="A106" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B106" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C106" s="3" t="s">
+      <c r="C106" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D106" s="2">
+      <c r="D106" s="4">
         <v>43.6</v>
       </c>
-      <c r="E106" s="2">
+      <c r="E106" s="4">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F106" s="2">
+      <c r="F106" s="4">
         <v>13</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="4">
         <v>7.4</v>
       </c>
-      <c r="I106" s="2">
+      <c r="H106" s="4"/>
+      <c r="I106" s="4">
         <v>9.0500000000000007</v>
       </c>
-      <c r="L106" s="2" t="s">
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B107" s="2" t="s">
+      <c r="A107" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="C107" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D107" s="2">
+      <c r="D107" s="4">
         <v>43.6</v>
       </c>
-      <c r="E107" s="2">
+      <c r="E107" s="4">
         <v>1.1399999999999999</v>
       </c>
-      <c r="F107" s="2">
+      <c r="F107" s="4">
         <v>13</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="4">
         <v>7.4</v>
       </c>
-      <c r="I107" s="2">
+      <c r="H107" s="4"/>
+      <c r="I107" s="4">
         <v>9.0500000000000007</v>
       </c>
-      <c r="L107" s="2" t="s">
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="108" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B108" s="2" t="s">
+      <c r="A108" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B108" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="C108" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D108" s="2">
+      <c r="D108" s="4">
         <v>20.8</v>
       </c>
-      <c r="E108" s="2">
+      <c r="E108" s="4">
         <v>0.79</v>
       </c>
-      <c r="F108" s="2">
+      <c r="F108" s="4">
         <v>8.6199999999999992</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="4">
         <v>7.2</v>
       </c>
-      <c r="I108" s="2">
+      <c r="H108" s="4"/>
+      <c r="I108" s="4">
         <v>5</v>
       </c>
-      <c r="L108" s="2" t="s">
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="109" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B109" s="2" t="s">
+      <c r="A109" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B109" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="C109" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D109" s="2">
+      <c r="D109" s="4">
         <v>26.6</v>
       </c>
-      <c r="E109" s="2">
+      <c r="E109" s="4">
         <v>1.05</v>
       </c>
-      <c r="F109" s="2">
+      <c r="F109" s="4">
         <v>11.1</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="4">
         <v>8.4700000000000006</v>
       </c>
-      <c r="I109" s="2">
+      <c r="H109" s="4"/>
+      <c r="I109" s="4">
         <v>7.26</v>
       </c>
-      <c r="L109" s="2" t="s">
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="110" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B110" s="2" t="s">
+      <c r="A110" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C110" s="3" t="s">
+      <c r="C110" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
     </row>
     <row r="111" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B111" s="2" t="s">
+      <c r="A111" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B111" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="C111" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
     </row>
     <row r="112" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B112" s="2" t="s">
+      <c r="A112" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B112" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C112" s="3" t="s">
+      <c r="C112" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L112" s="2" t="s">
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="113" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B113" s="2" t="s">
+      <c r="A113" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="C113" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L113" s="2" t="s">
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="114" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B114" s="2" t="s">
+      <c r="A114" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C114" s="3" t="s">
+      <c r="C114" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D114" s="2">
+      <c r="D114" s="4">
         <v>86.2</v>
       </c>
-      <c r="E114" s="2">
+      <c r="E114" s="4">
         <v>5</v>
       </c>
-      <c r="G114" s="2">
+      <c r="F114" s="4"/>
+      <c r="G114" s="4">
         <v>61.6</v>
       </c>
-      <c r="L114" s="2" t="s">
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B115" s="2" t="s">
+      <c r="A115" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B115" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="C115" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D115" s="2">
+      <c r="D115" s="4">
         <v>129.4</v>
       </c>
-      <c r="E115" s="2">
+      <c r="E115" s="4">
         <v>10</v>
       </c>
-      <c r="G115" s="2">
+      <c r="F115" s="4"/>
+      <c r="G115" s="4">
         <v>92.4</v>
       </c>
-      <c r="L115" s="2" t="s">
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="116" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B116" s="2" t="s">
+      <c r="A116" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B116" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C116" s="3" t="s">
+      <c r="C116" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D116" s="2">
+      <c r="D116" s="4">
         <v>40.01</v>
       </c>
-      <c r="E116" s="2">
+      <c r="E116" s="4">
         <v>2</v>
       </c>
-      <c r="G116" s="2">
+      <c r="F116" s="4"/>
+      <c r="G116" s="4">
         <v>28.15</v>
       </c>
-      <c r="L116" s="2" t="s">
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="117" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B117" s="2" t="s">
+      <c r="A117" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B117" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="C117" s="3" t="s">
+      <c r="C117" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D117" s="2">
+      <c r="D117" s="4">
         <v>60.02</v>
       </c>
-      <c r="E117" s="2">
+      <c r="E117" s="4">
         <v>4.5</v>
       </c>
-      <c r="G117" s="2">
+      <c r="F117" s="4"/>
+      <c r="G117" s="4">
         <v>42.22</v>
       </c>
-      <c r="L117" s="2" t="s">
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="118" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B118" s="2" t="s">
+      <c r="A118" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B118" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C118" s="3" t="s">
+      <c r="C118" s="5" t="s">
         <v>74</v>
       </c>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
     </row>
     <row r="119" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B119" s="2" t="s">
+      <c r="A119" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B119" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="C119" s="3" t="s">
+      <c r="C119" s="5" t="s">
         <v>75</v>
       </c>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
     </row>
     <row r="120" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B120" s="2" t="s">
+      <c r="A120" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="C120" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L120" s="2" t="s">
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="121" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B121" s="2" t="s">
+      <c r="A121" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B121" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L121" s="2" t="s">
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="122" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B122" s="2" t="s">
+      <c r="A122" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B122" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C122" s="3" t="s">
+      <c r="C122" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D122" s="2">
+      <c r="D122" s="4">
         <v>7.86</v>
       </c>
-      <c r="E122" s="2">
+      <c r="E122" s="4">
         <v>0.11</v>
       </c>
-      <c r="F122" s="2">
+      <c r="F122" s="4">
         <v>3.87</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G122" s="4">
         <v>1.84</v>
       </c>
-      <c r="I122" s="2">
+      <c r="H122" s="4"/>
+      <c r="I122" s="4">
         <v>6.27</v>
       </c>
-      <c r="L122" s="2" t="s">
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="123" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B123" s="2" t="s">
+      <c r="A123" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B123" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="C123" s="3" t="s">
+      <c r="C123" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D123" s="2">
+      <c r="D123" s="4">
         <v>7.86</v>
       </c>
-      <c r="E123" s="2">
+      <c r="E123" s="4">
         <v>0.11</v>
       </c>
-      <c r="F123" s="2">
+      <c r="F123" s="4">
         <v>3.87</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G123" s="4">
         <v>1.84</v>
       </c>
-      <c r="I123" s="2">
+      <c r="H123" s="4"/>
+      <c r="I123" s="4">
         <v>6.27</v>
       </c>
-      <c r="L123" s="2" t="s">
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="124" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B124" s="2" t="s">
+      <c r="A124" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B124" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="C124" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="L124" s="2" t="s">
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="125" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B125" s="2" t="s">
+      <c r="A125" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B125" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="C125" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="L125" s="2" t="s">
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4" t="s">
         <v>122</v>
-      </c>
-    </row>
-    <row r="126" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C126" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="127" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C130" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C132" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C134" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C143" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C144" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C145" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C146" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C150" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C151" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C154" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C159" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A160" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C160" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C162" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="163" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A163" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="164" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A164" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A165" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A166" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A167" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="168" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A168" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="169" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A169" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A170" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A171" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C171" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A172" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C172" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A173" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C173" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="174" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A174" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C174" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="175" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A175" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="176" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A176" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A177" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A178" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="179" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A179" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A180" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A181" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A185" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A186" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A187" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A188" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A189" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="190" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A190" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A191" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C192" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A193" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="74" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Sheet2!$A$1:$F$125</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$1</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet2!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="123">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -899,7 +902,7 @@
   </sheetPr>
   <dimension ref="A1:L125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -4482,4 +4485,1976 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:F125"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E108" sqref="E108"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>1.5</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="F2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="6">
+        <v>4</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="D3" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="6">
+        <v>8.4</v>
+      </c>
+      <c r="C4" s="6">
+        <v>1.2</v>
+      </c>
+      <c r="D4" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="C5" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="D5" s="6">
+        <v>17.7</v>
+      </c>
+      <c r="E5" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" s="6">
+        <v>21.1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E6" s="6">
+        <v>5</v>
+      </c>
+      <c r="F6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D7" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E7" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="F7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D8" s="6">
+        <v>5.46</v>
+      </c>
+      <c r="E8" s="6">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="F8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="6">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C9" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="D9" s="6">
+        <v>7.63</v>
+      </c>
+      <c r="E9" s="6">
+        <v>2.79</v>
+      </c>
+      <c r="F9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" s="6">
+        <v>21.1</v>
+      </c>
+      <c r="C10" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="E10" s="6">
+        <v>5</v>
+      </c>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="C11" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="D11" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E11" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="6">
+        <v>3</v>
+      </c>
+      <c r="C12" s="6">
+        <v>1.4</v>
+      </c>
+      <c r="D12" s="6">
+        <v>4</v>
+      </c>
+      <c r="E12" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="C13" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="D13" s="6">
+        <v>12</v>
+      </c>
+      <c r="E13" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="6">
+        <v>12.3</v>
+      </c>
+      <c r="C14" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="D14" s="6">
+        <v>4.2</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="C15" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="6">
+        <v>17</v>
+      </c>
+      <c r="C16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D16" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="C17" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D17" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E17" s="6">
+        <v>3</v>
+      </c>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="C18" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="E18" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="6">
+        <v>22</v>
+      </c>
+      <c r="C19" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="E19" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="C20" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E20" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" s="6">
+        <v>25</v>
+      </c>
+      <c r="C21" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E21" s="6">
+        <v>3</v>
+      </c>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0.9</v>
+      </c>
+      <c r="D22" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>25</v>
+      </c>
+      <c r="C23" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="D23" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="C24" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D24" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E24" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D25" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="E25" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26" s="6">
+        <v>13.94</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0.67</v>
+      </c>
+      <c r="D26" s="6">
+        <v>6.05</v>
+      </c>
+      <c r="E26" s="6">
+        <v>2.39</v>
+      </c>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" s="6">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="D27" s="6">
+        <v>7.63</v>
+      </c>
+      <c r="E27" s="6">
+        <v>2.79</v>
+      </c>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="6">
+        <v>8.1</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0.4</v>
+      </c>
+      <c r="D28" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="E28" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D29" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="E29" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B30" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="D30" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="E30" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B31" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="C31" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D31" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="E31" s="6">
+        <v>3</v>
+      </c>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="D32" s="6">
+        <v>5.2</v>
+      </c>
+      <c r="E32" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="D33" s="6">
+        <v>8</v>
+      </c>
+      <c r="E33" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="C34" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D34" s="6">
+        <v>11</v>
+      </c>
+      <c r="E34" s="6">
+        <v>2</v>
+      </c>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B35" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="C35" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="D35" s="6">
+        <v>11</v>
+      </c>
+      <c r="E35" s="6">
+        <v>2</v>
+      </c>
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B36" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="C36" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="D36" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="E36" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="C37" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="D37" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="E37" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="6">
+        <v>20</v>
+      </c>
+      <c r="C38" s="6">
+        <v>2</v>
+      </c>
+      <c r="D38" s="6">
+        <v>5</v>
+      </c>
+      <c r="E38" s="6">
+        <v>4.5</v>
+      </c>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="6">
+        <v>40</v>
+      </c>
+      <c r="C39" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="D39" s="6">
+        <v>15</v>
+      </c>
+      <c r="E39" s="6">
+        <v>15</v>
+      </c>
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="C40" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="D40" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="E40" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B41" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="C41" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="D41" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="E41" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B42" s="6">
+        <v>45</v>
+      </c>
+      <c r="C42" s="6">
+        <v>1</v>
+      </c>
+      <c r="D42" s="6">
+        <v>2</v>
+      </c>
+      <c r="E42" s="6">
+        <v>13</v>
+      </c>
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="6">
+        <v>45</v>
+      </c>
+      <c r="C43" s="6">
+        <v>1</v>
+      </c>
+      <c r="D43" s="6">
+        <v>2</v>
+      </c>
+      <c r="E43" s="6">
+        <v>13</v>
+      </c>
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B44" s="6">
+        <v>47.1</v>
+      </c>
+      <c r="C44" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="D44" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E44" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B45" s="6">
+        <v>47.1</v>
+      </c>
+      <c r="C45" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="D45" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E45" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B46" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D46" s="4">
+        <v>8.4</v>
+      </c>
+      <c r="E46" s="4">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B47" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="C47" s="4">
+        <v>2</v>
+      </c>
+      <c r="D47" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="E47" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="4">
+        <v>21.1</v>
+      </c>
+      <c r="C48" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D48" s="4">
+        <v>3.9</v>
+      </c>
+      <c r="E48" s="4">
+        <v>5</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="4">
+        <v>28.1</v>
+      </c>
+      <c r="C49" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="D49" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E49" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B50" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D50" s="4">
+        <v>9</v>
+      </c>
+      <c r="E50" s="4">
+        <v>1.4</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B51" s="4">
+        <v>17</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="D51" s="4">
+        <v>12</v>
+      </c>
+      <c r="E51" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B52" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="D52" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="E52" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B53" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="D53" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="E53" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B54" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="C54" s="4">
+        <v>4.3</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1.2</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B55" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="C55" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D55" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3.96</v>
+      </c>
+      <c r="E56" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F56" s="4">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3.96</v>
+      </c>
+      <c r="E57" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="F57" s="4">
+        <v>3.35</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B58" s="4">
+        <v>15.6</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.9</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3.4</v>
+      </c>
+      <c r="E58" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="4">
+        <v>25</v>
+      </c>
+      <c r="C59" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D59" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="E59" s="4">
+        <v>3</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B62" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="C62" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D62" s="4">
+        <v>26.1</v>
+      </c>
+      <c r="E62" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="F62" s="4">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B63" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="C63" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D63" s="4">
+        <v>26.1</v>
+      </c>
+      <c r="E63" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="F63" s="4">
+        <v>18.100000000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B70" s="4">
+        <v>22</v>
+      </c>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4">
+        <v>5</v>
+      </c>
+      <c r="E70" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F70" s="4"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B71" s="4">
+        <v>22</v>
+      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4">
+        <v>5</v>
+      </c>
+      <c r="E71" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="F71" s="4"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+    </row>
+    <row r="77" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+    </row>
+    <row r="78" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+    </row>
+    <row r="79" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+    </row>
+    <row r="80" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B80" s="4">
+        <v>35</v>
+      </c>
+      <c r="C80" s="4">
+        <v>12</v>
+      </c>
+      <c r="D80" s="4">
+        <v>5</v>
+      </c>
+      <c r="E80" s="4">
+        <v>5</v>
+      </c>
+      <c r="F80" s="4"/>
+    </row>
+    <row r="81" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B81" s="4">
+        <v>35</v>
+      </c>
+      <c r="C81" s="4">
+        <v>12</v>
+      </c>
+      <c r="D81" s="4">
+        <v>5</v>
+      </c>
+      <c r="E81" s="4">
+        <v>5</v>
+      </c>
+      <c r="F81" s="4"/>
+    </row>
+    <row r="82" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+    </row>
+    <row r="83" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+    </row>
+    <row r="84" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+    </row>
+    <row r="85" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+    </row>
+    <row r="86" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+    </row>
+    <row r="87" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+    </row>
+    <row r="88" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B88" s="4">
+        <v>25</v>
+      </c>
+      <c r="C88" s="4">
+        <v>11</v>
+      </c>
+      <c r="D88" s="4">
+        <v>3</v>
+      </c>
+      <c r="E88" s="4">
+        <v>21</v>
+      </c>
+      <c r="F88" s="4"/>
+    </row>
+    <row r="89" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B89" s="4">
+        <v>65</v>
+      </c>
+      <c r="C89" s="4">
+        <v>25</v>
+      </c>
+      <c r="D89" s="4">
+        <v>7</v>
+      </c>
+      <c r="E89" s="4">
+        <v>55</v>
+      </c>
+      <c r="F89" s="4"/>
+    </row>
+    <row r="90" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" s="4">
+        <v>57</v>
+      </c>
+      <c r="C90" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D90" s="4">
+        <v>16</v>
+      </c>
+      <c r="E90" s="4">
+        <v>10</v>
+      </c>
+      <c r="F90" s="4"/>
+    </row>
+    <row r="91" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B91" s="4">
+        <v>87</v>
+      </c>
+      <c r="C91" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D91" s="4">
+        <v>26</v>
+      </c>
+      <c r="E91" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="F91" s="4"/>
+    </row>
+    <row r="92" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+    </row>
+    <row r="93" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+    </row>
+    <row r="94" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+    </row>
+    <row r="95" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+    </row>
+    <row r="96" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+    </row>
+    <row r="97" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+    </row>
+    <row r="98" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+    </row>
+    <row r="99" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+    </row>
+    <row r="100" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B100" s="4">
+        <v>32</v>
+      </c>
+      <c r="C100" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D100" s="4">
+        <v>13.3</v>
+      </c>
+      <c r="E100" s="4">
+        <v>25</v>
+      </c>
+      <c r="F100" s="4">
+        <v>11.15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B101" s="4">
+        <v>42</v>
+      </c>
+      <c r="C101" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="D101" s="4">
+        <v>26</v>
+      </c>
+      <c r="E101" s="4">
+        <v>21.11</v>
+      </c>
+      <c r="F101" s="4">
+        <v>11.74</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B102" s="4">
+        <v>23.06</v>
+      </c>
+      <c r="C102" s="4">
+        <v>7.66</v>
+      </c>
+      <c r="D102" s="4">
+        <v>12.57</v>
+      </c>
+      <c r="E102" s="4">
+        <v>21.78</v>
+      </c>
+      <c r="F102" s="4">
+        <v>10.52</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="4">
+        <v>25.75</v>
+      </c>
+      <c r="C103" s="4">
+        <v>14.57</v>
+      </c>
+      <c r="D103" s="4">
+        <v>13.27</v>
+      </c>
+      <c r="E103" s="4">
+        <v>23.79</v>
+      </c>
+      <c r="F103" s="4">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" s="4">
+        <v>43.1</v>
+      </c>
+      <c r="C104" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4">
+        <v>30.8</v>
+      </c>
+      <c r="F104" s="4"/>
+    </row>
+    <row r="105" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B105" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="C105" s="4">
+        <v>5</v>
+      </c>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4">
+        <v>46.2</v>
+      </c>
+      <c r="F105" s="4"/>
+    </row>
+    <row r="106" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="4">
+        <v>43.6</v>
+      </c>
+      <c r="C106" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D106" s="4">
+        <v>13</v>
+      </c>
+      <c r="E106" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="F106" s="4">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B107" s="4">
+        <v>43.6</v>
+      </c>
+      <c r="C107" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="D107" s="4">
+        <v>13</v>
+      </c>
+      <c r="E107" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="F107" s="4">
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="4">
+        <v>20.8</v>
+      </c>
+      <c r="C108" s="4">
+        <v>0.79</v>
+      </c>
+      <c r="D108" s="4">
+        <v>8.6199999999999992</v>
+      </c>
+      <c r="E108" s="4">
+        <v>7.2</v>
+      </c>
+      <c r="F108" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="C109" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="D109" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="E109" s="4">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="F109" s="4">
+        <v>7.26</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+    </row>
+    <row r="111" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+    </row>
+    <row r="113" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+    </row>
+    <row r="114" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B114" s="4">
+        <v>86.2</v>
+      </c>
+      <c r="C114" s="4">
+        <v>5</v>
+      </c>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4">
+        <v>61.6</v>
+      </c>
+      <c r="F114" s="4"/>
+    </row>
+    <row r="115" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="B115" s="4">
+        <v>129.4</v>
+      </c>
+      <c r="C115" s="4">
+        <v>10</v>
+      </c>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4">
+        <v>92.4</v>
+      </c>
+      <c r="F115" s="4"/>
+    </row>
+    <row r="116" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B116" s="4">
+        <v>40.01</v>
+      </c>
+      <c r="C116" s="4">
+        <v>2</v>
+      </c>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4">
+        <v>28.15</v>
+      </c>
+      <c r="F116" s="4"/>
+    </row>
+    <row r="117" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="B117" s="4">
+        <v>60.02</v>
+      </c>
+      <c r="C117" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4">
+        <v>42.22</v>
+      </c>
+      <c r="F117" s="4"/>
+    </row>
+    <row r="118" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+    </row>
+    <row r="119" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+    </row>
+    <row r="120" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+    </row>
+    <row r="121" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+    </row>
+    <row r="122" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B122" s="4">
+        <v>7.86</v>
+      </c>
+      <c r="C122" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D122" s="4">
+        <v>3.87</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="F122" s="4">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B123" s="4">
+        <v>7.86</v>
+      </c>
+      <c r="C123" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="D123" s="4">
+        <v>3.87</v>
+      </c>
+      <c r="E123" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="F123" s="4">
+        <v>6.27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+    </row>
+    <row r="125" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
+++ b/2. 연구사업(2023년)/6. 분석결과/2023_연구사업 제품수_Ca, Na, Mg, K, F 함량 정보.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$125</definedName>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="123">
   <si>
     <t>제품명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -897,16 +898,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L125"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C101" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="P106" sqref="P106"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="A1:L125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -957,7 +958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>53</v>
       </c>
@@ -1021,7 +1022,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>53</v>
       </c>
@@ -1085,7 +1086,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>53</v>
       </c>
@@ -1149,7 +1150,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>53</v>
       </c>
@@ -1213,7 +1214,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>53</v>
       </c>
@@ -1277,7 +1278,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>53</v>
       </c>
@@ -1341,7 +1342,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>53</v>
       </c>
@@ -1405,7 +1406,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>53</v>
       </c>
@@ -1469,7 +1470,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
@@ -1533,7 +1534,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>53</v>
       </c>
@@ -1597,7 +1598,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>53</v>
       </c>
@@ -1661,7 +1662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
@@ -1725,7 +1726,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>53</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="s">
         <v>53</v>
       </c>
@@ -1853,7 +1854,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="s">
         <v>53</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="s">
         <v>53</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="s">
         <v>53</v>
       </c>
@@ -2045,7 +2046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="s">
         <v>53</v>
       </c>
@@ -2109,7 +2110,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="s">
         <v>53</v>
       </c>
@@ -2173,7 +2174,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="s">
         <v>53</v>
       </c>
@@ -2237,7 +2238,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="4" t="s">
         <v>53</v>
       </c>
@@ -2301,7 +2302,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="4" t="s">
         <v>53</v>
       </c>
@@ -2365,7 +2366,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="4" t="s">
         <v>53</v>
       </c>
@@ -2429,7 +2430,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="4" t="s">
         <v>53</v>
       </c>
@@ -2493,7 +2494,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="4" t="s">
         <v>53</v>
       </c>
@@ -2557,7 +2558,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="52" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="4" t="s">
         <v>53</v>
       </c>
@@ -2621,7 +2622,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="4" t="s">
         <v>53</v>
       </c>
@@ -2685,7 +2686,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="4" t="s">
         <v>54</v>
       </c>
@@ -2753,7 +2754,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="4" t="s">
         <v>53</v>
       </c>
@@ -2817,7 +2818,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="4" t="s">
         <v>54</v>
       </c>
@@ -2861,7 +2862,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>54</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>54</v>
       </c>
@@ -2969,7 +2970,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="4" t="s">
         <v>54</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="68" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="4" t="s">
         <v>54</v>
       </c>
@@ -3057,7 +3058,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="70" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="4" t="s">
         <v>54</v>
       </c>
@@ -3117,7 +3118,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="72" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="4" t="s">
         <v>54</v>
       </c>
@@ -3161,7 +3162,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="74" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="4" t="s">
         <v>54</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="76" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="4" t="s">
         <v>54</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="78" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="4" t="s">
         <v>54</v>
       </c>
@@ -3293,7 +3294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="80" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="4" t="s">
         <v>54</v>
       </c>
@@ -3353,7 +3354,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="4" t="s">
         <v>54</v>
       </c>
@@ -3395,7 +3396,7 @@
       <c r="K83" s="4"/>
       <c r="L83" s="4"/>
     </row>
-    <row r="84" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>54</v>
       </c>
@@ -3435,7 +3436,7 @@
       <c r="K85" s="4"/>
       <c r="L85" s="4"/>
     </row>
-    <row r="86" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>54</v>
       </c>
@@ -3479,7 +3480,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="4" t="s">
         <v>54</v>
       </c>
@@ -3539,7 +3540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="4" t="s">
         <v>54</v>
       </c>
@@ -3603,7 +3604,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="4" t="s">
         <v>54</v>
       </c>
@@ -3647,7 +3648,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="4" t="s">
         <v>54</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="4" t="s">
         <v>54</v>
       </c>
@@ -3735,7 +3736,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="4" t="s">
         <v>54</v>
       </c>
@@ -3779,7 +3780,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="4" t="s">
         <v>54</v>
       </c>
@@ -3843,7 +3844,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="4" t="s">
         <v>54</v>
       </c>
@@ -3907,7 +3908,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="4" t="s">
         <v>54</v>
       </c>
@@ -3963,7 +3964,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="106" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>54</v>
       </c>
@@ -4027,7 +4028,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="108" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>54</v>
       </c>
@@ -4091,7 +4092,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="110" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="4" t="s">
         <v>54</v>
       </c>
@@ -4131,7 +4132,7 @@
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
     </row>
-    <row r="112" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="4" t="s">
         <v>54</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="4" t="s">
         <v>54</v>
       </c>
@@ -4231,7 +4232,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="116" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="4" t="s">
         <v>54</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="118" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="4" t="s">
         <v>54</v>
       </c>
@@ -4327,7 +4328,7 @@
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
     </row>
-    <row r="120" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="4" t="s">
         <v>54</v>
       </c>
@@ -4371,7 +4372,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="122" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="4" t="s">
         <v>54</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="124" spans="1:12" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:12" ht="20.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="4" t="s">
         <v>54</v>
       </c>
@@ -4480,6 +4481,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L125">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="최대"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4494,7 +4502,7 @@
   </sheetPr>
   <dimension ref="A1:F125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6457,4 +6465,1822 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L63"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="21.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="6">
+        <v>4</v>
+      </c>
+      <c r="E2" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="F2" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="G2" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="H2" s="6">
+        <v>0</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>15.5</v>
+      </c>
+      <c r="E3" s="6">
+        <v>1.8</v>
+      </c>
+      <c r="F3" s="6">
+        <v>17.7</v>
+      </c>
+      <c r="G3" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H3" s="6">
+        <v>0.3</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="E4" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G4" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="H4" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E5" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="F5" s="6">
+        <v>7.63</v>
+      </c>
+      <c r="G5" s="6">
+        <v>2.79</v>
+      </c>
+      <c r="H5" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="E6" s="6">
+        <v>1.7</v>
+      </c>
+      <c r="F6" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G6" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="H6" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6">
+        <v>5.8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>12</v>
+      </c>
+      <c r="G7" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="H7" s="6">
+        <v>1</v>
+      </c>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G8" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H8" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="E9" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F9" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="G9" s="6">
+        <v>3</v>
+      </c>
+      <c r="H9" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="6">
+        <v>22</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F10" s="6">
+        <v>2.4</v>
+      </c>
+      <c r="G10" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0</v>
+      </c>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="4" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="6">
+        <v>25</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="G11" s="6">
+        <v>3</v>
+      </c>
+      <c r="H11" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="6">
+        <v>25</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="G12" s="6">
+        <v>3</v>
+      </c>
+      <c r="H12" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E13" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F13" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="G13" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6">
+        <v>19.989999999999998</v>
+      </c>
+      <c r="E14" s="6">
+        <v>0.82</v>
+      </c>
+      <c r="F14" s="6">
+        <v>7.63</v>
+      </c>
+      <c r="G14" s="6">
+        <v>2.79</v>
+      </c>
+      <c r="H14" s="6">
+        <v>0.18</v>
+      </c>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E15" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="G15" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="H15" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="6">
+        <v>28.3</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F16" s="6">
+        <v>11.1</v>
+      </c>
+      <c r="G16" s="6">
+        <v>3</v>
+      </c>
+      <c r="H16" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="6">
+        <v>14.7</v>
+      </c>
+      <c r="E17" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="F17" s="6">
+        <v>8</v>
+      </c>
+      <c r="G17" s="6">
+        <v>2.1</v>
+      </c>
+      <c r="H17" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="E18" s="6">
+        <v>0.7</v>
+      </c>
+      <c r="F18" s="6">
+        <v>11</v>
+      </c>
+      <c r="G18" s="6">
+        <v>2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0</v>
+      </c>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="E19" s="6">
+        <v>0.96</v>
+      </c>
+      <c r="F19" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="G19" s="6">
+        <v>0.6</v>
+      </c>
+      <c r="H19" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D20" s="6">
+        <v>40</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3.5</v>
+      </c>
+      <c r="F20" s="6">
+        <v>15</v>
+      </c>
+      <c r="G20" s="6">
+        <v>15</v>
+      </c>
+      <c r="H20" s="6">
+        <v>0.01</v>
+      </c>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6">
+        <v>5.6</v>
+      </c>
+      <c r="E21" s="6">
+        <v>2.12</v>
+      </c>
+      <c r="F21" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="G21" s="6">
+        <v>14.9</v>
+      </c>
+      <c r="H21" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="6">
+        <v>45</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>2</v>
+      </c>
+      <c r="G22" s="6">
+        <v>13</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="6">
+        <v>47.1</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0.94</v>
+      </c>
+      <c r="F23" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="G23" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="4">
+        <v>37.9</v>
+      </c>
+      <c r="E24" s="4">
+        <v>2</v>
+      </c>
+      <c r="F24" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="G24" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0.4</v>
+      </c>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="4">
+        <v>28.1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1.7</v>
+      </c>
+      <c r="F25" s="4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="G25" s="4">
+        <v>6.8</v>
+      </c>
+      <c r="H25" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="4">
+        <v>17</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.6</v>
+      </c>
+      <c r="F26" s="4">
+        <v>12</v>
+      </c>
+      <c r="G26" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H26" s="4">
+        <v>1</v>
+      </c>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="F27" s="4">
+        <v>6.7</v>
+      </c>
+      <c r="G27" s="4">
+        <v>1.3</v>
+      </c>
+      <c r="H27" s="4">
+        <v>0.7</v>
+      </c>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="4">
+        <v>9.9</v>
+      </c>
+      <c r="E28" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G28" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="H28" s="4">
+        <v>0</v>
+      </c>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.21</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3.96</v>
+      </c>
+      <c r="G29" s="4">
+        <v>2.1</v>
+      </c>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4">
+        <v>3.35</v>
+      </c>
+      <c r="J29" s="4">
+        <v>0.06</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="4">
+        <v>25</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="F30" s="4">
+        <v>5.3</v>
+      </c>
+      <c r="G30" s="4">
+        <v>3</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="4">
+        <v>87.2</v>
+      </c>
+      <c r="E32" s="4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="F32" s="4">
+        <v>26.1</v>
+      </c>
+      <c r="G32" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A36" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D36" s="4">
+        <v>22</v>
+      </c>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4">
+        <v>5</v>
+      </c>
+      <c r="G36" s="4">
+        <v>2.5</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4">
+        <v>5</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A38" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A39" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A40" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="4">
+        <v>35</v>
+      </c>
+      <c r="E41" s="4">
+        <v>12</v>
+      </c>
+      <c r="F41" s="4">
+        <v>5</v>
+      </c>
+      <c r="G41" s="4">
+        <v>5</v>
+      </c>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A42" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A43" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A44" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="4"/>
+      <c r="L44" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A45" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="4">
+        <v>65</v>
+      </c>
+      <c r="E45" s="4">
+        <v>25</v>
+      </c>
+      <c r="F45" s="4">
+        <v>7</v>
+      </c>
+      <c r="G45" s="4">
+        <v>55</v>
+      </c>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A46" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="4">
+        <v>87</v>
+      </c>
+      <c r="E46" s="4">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="F46" s="4">
+        <v>26</v>
+      </c>
+      <c r="G46" s="4">
+        <v>14.8</v>
+      </c>
+      <c r="H46" s="4">
+        <v>18</v>
+      </c>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A47" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="4"/>
+      <c r="L47" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A48" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B48" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="4"/>
+      <c r="L48" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="4"/>
+      <c r="L49" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A50" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="4"/>
+      <c r="L50" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A51" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D51" s="4">
+        <v>42</v>
+      </c>
+      <c r="E51" s="4">
+        <v>1.6</v>
+      </c>
+      <c r="F51" s="4">
+        <v>26</v>
+      </c>
+      <c r="G51" s="4">
+        <v>21.11</v>
+      </c>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4">
+        <v>11.74</v>
+      </c>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A52" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="4">
+        <v>25.75</v>
+      </c>
+      <c r="E52" s="4">
+        <v>14.57</v>
+      </c>
+      <c r="F52" s="4">
+        <v>13.27</v>
+      </c>
+      <c r="G52" s="4">
+        <v>23.79</v>
+      </c>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4">
+        <v>10.87</v>
+      </c>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A53" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="4">
+        <v>64.7</v>
+      </c>
+      <c r="E53" s="4">
+        <v>5</v>
+      </c>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4">
+        <v>46.2</v>
+      </c>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="4">
+        <v>43.6</v>
+      </c>
+      <c r="E54" s="4">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="F54" s="4">
+        <v>13</v>
+      </c>
+      <c r="G54" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="J54" s="4"/>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A55" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="4">
+        <v>26.6</v>
+      </c>
+      <c r="E55" s="4">
+        <v>1.05</v>
+      </c>
+      <c r="F55" s="4">
+        <v>11.1</v>
+      </c>
+      <c r="G55" s="4">
+        <v>8.4700000000000006</v>
+      </c>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4">
+        <v>7.26</v>
+      </c>
+      <c r="J55" s="4"/>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A56" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A57" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A58" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D58" s="4">
+        <v>129.4</v>
+      </c>
+      <c r="E58" s="4">
+        <v>10</v>
+      </c>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4">
+        <v>92.4</v>
+      </c>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A59" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4">
+        <v>60.02</v>
+      </c>
+      <c r="E59" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4">
+        <v>42.22</v>
+      </c>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A60" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A61" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A62" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D62" s="4">
+        <v>7.86</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.11</v>
+      </c>
+      <c r="F62" s="4">
+        <v>3.87</v>
+      </c>
+      <c r="G62" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4">
+        <v>6.27</v>
+      </c>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A63" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>